--- a/Master Dissertation/Data/DataTable.xlsx
+++ b/Master Dissertation/Data/DataTable.xlsx
@@ -2,19 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AI\Paper 3\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AI\Master Dissertation\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16935" windowHeight="12255"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16932" windowHeight="12252"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="58">
   <si>
     <t>Experimentation 1</t>
   </si>
@@ -122,9 +122,6 @@
     <t>HIS</t>
   </si>
   <si>
-    <t>A hybrid ANFIS model based on empirical mode decomposition forstock time series forecasting</t>
-  </si>
-  <si>
     <t>12/06/2001-01/17/2002 (31)</t>
   </si>
   <si>
@@ -162,17 +159,73 @@
   </si>
   <si>
     <t>01/20/2000~10/31/2000 (204)</t>
+  </si>
+  <si>
+    <t>Experimentation 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Experimentation 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Experimentation 6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A hybrid approach by integrating wavelet-based feature extraction with MARS and SVR for stock index forecasting</t>
+  </si>
+  <si>
+    <t>BVSP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DJI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NIKKEI 225</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSEC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HS300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DJIA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S&amp;P500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Forecasting stock market indexes using principle component analysis and stochastic time effective neural networks</t>
+  </si>
+  <si>
+    <t>Fuzzy time-series model based on rough set rule induction for forecasting stock price</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -489,23 +542,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.125" customWidth="1"/>
-    <col min="2" max="2" width="33.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="31.375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="37.5" customWidth="1"/>
-    <col min="5" max="5" width="34.625" customWidth="1"/>
-    <col min="6" max="6" width="101.75" customWidth="1"/>
+    <col min="1" max="1" width="43.109375" customWidth="1"/>
+    <col min="2" max="2" width="33.44140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="31.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="37.44140625" customWidth="1"/>
+    <col min="5" max="5" width="34.6640625" customWidth="1"/>
+    <col min="6" max="6" width="101.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>7</v>
       </c>
@@ -522,12 +575,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -547,7 +600,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -567,7 +620,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -587,7 +640,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -607,12 +660,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
@@ -620,19 +673,19 @@
         <v>27</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" t="s">
         <v>36</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="F9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
@@ -640,58 +693,64 @@
         <v>31</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>37</v>
+      </c>
+      <c r="F11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
@@ -711,7 +770,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
@@ -731,7 +790,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>5</v>
       </c>
@@ -751,7 +810,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>6</v>
       </c>
@@ -768,7 +827,128 @@
         <v>23</v>
       </c>
     </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F24" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Master Dissertation/Data/DataTable.xlsx
+++ b/Master Dissertation/Data/DataTable.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AI\Master Dissertation\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16932" windowHeight="12252"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16935" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="66">
   <si>
     <t>Experimentation 1</t>
   </si>
@@ -119,18 +119,6 @@
     <t>11/20/2000-12/26/2001 (31)</t>
   </si>
   <si>
-    <t>HIS</t>
-  </si>
-  <si>
-    <t>12/06/2001-01/17/2002 (31)</t>
-  </si>
-  <si>
-    <t>NIKKEI 225</t>
-  </si>
-  <si>
-    <t>SSEI</t>
-  </si>
-  <si>
     <t>11/16/1999-12/31/1999 (31)</t>
   </si>
   <si>
@@ -146,19 +134,7 @@
     <t>01/05/2000~10/31/2000 (204)</t>
   </si>
   <si>
-    <t>01/07/2000~10/31/2000 (204)</t>
-  </si>
-  <si>
     <t>11/19/1999-01/04/2000 (31)</t>
-  </si>
-  <si>
-    <t>11/18/1999-01/06/2000 (31)</t>
-  </si>
-  <si>
-    <t>11/01/2000~12/28/2000 (42)</t>
-  </si>
-  <si>
-    <t>01/20/2000~10/31/2000 (204)</t>
   </si>
   <si>
     <t>Experimentation 4</t>
@@ -192,40 +168,85 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>HS300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DJIA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S&amp;P500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Forecasting stock market indexes using principle component analysis and stochastic time effective neural networks</t>
-  </si>
-  <si>
     <t>Fuzzy time-series model based on rough set rule induction for forecasting stock price</t>
+  </si>
+  <si>
+    <t>JKSE</t>
+  </si>
+  <si>
+    <t>01/01/1998-07/31/2000 (31)</t>
+  </si>
+  <si>
+    <t>08/01/2000~12/31/2009 (115)</t>
+  </si>
+  <si>
+    <t>01/01/2010~12/31/2015 (70)</t>
+  </si>
+  <si>
+    <t>Comparative study of volatility forecasting models: The case of Malaysia, hong kong and japan stock markets</t>
+  </si>
+  <si>
+    <t>01/23/2006-03/13/2006 (31)</t>
+  </si>
+  <si>
+    <t>03/14/2006~05/27/2009 (800)</t>
+  </si>
+  <si>
+    <t>05/28/2009~04/01/2010 (200)</t>
+  </si>
+  <si>
+    <t>02/27/2006-04/11/2006 (31)</t>
+  </si>
+  <si>
+    <t>04/12/2006~06/15/2009 (800)</t>
+  </si>
+  <si>
+    <t>06/16/2009~04/01/2010 (200)</t>
+  </si>
+  <si>
+    <t>01/20/2006-03/02/2006 (31)</t>
+  </si>
+  <si>
+    <t>03/03/2006~05/25/2009 (800)</t>
+  </si>
+  <si>
+    <t>05/26/2009~04/01/2010 (200)</t>
+  </si>
+  <si>
+    <t>01/06/2006-02/28/2006 (31)</t>
+  </si>
+  <si>
+    <t>03/01/2006~06/08/2009 (800)</t>
+  </si>
+  <si>
+    <t>06/09/2009~04/01/2010 (200)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HSI </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HSI</t>
+  </si>
+  <si>
+    <t>A hybrid fuzzy time series model based on granular computing for stock price forecasting</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -251,7 +272,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -261,6 +282,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -542,23 +566,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="43.109375" customWidth="1"/>
-    <col min="2" max="2" width="33.44140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="31.33203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="37.44140625" customWidth="1"/>
-    <col min="5" max="5" width="34.6640625" customWidth="1"/>
-    <col min="6" max="6" width="101.77734375" customWidth="1"/>
+    <col min="1" max="1" width="43.125" customWidth="1"/>
+    <col min="2" max="2" width="33.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="31.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="37.5" customWidth="1"/>
+    <col min="5" max="5" width="34.625" customWidth="1"/>
+    <col min="6" max="6" width="101.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="2" customFormat="1">
       <c r="B1" s="2" t="s">
         <v>7</v>
       </c>
@@ -575,12 +599,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -597,355 +621,386 @@
         <v>29</v>
       </c>
       <c r="F3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+    <row r="14" spans="1:6">
+      <c r="A14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D14" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F14" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+    <row r="15" spans="1:6">
+      <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D15" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E15" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F15" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+    <row r="16" spans="1:6">
+      <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D16" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E16" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F16" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+    <row r="17" spans="1:6">
+      <c r="A17" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="B18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="D20" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="B24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+      <c r="B28" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" t="s">
+        <v>49</v>
+      </c>
+      <c r="F28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="2" t="s">
+      <c r="B29" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" t="s">
+        <v>48</v>
+      </c>
+      <c r="E29" t="s">
         <v>49</v>
       </c>
-      <c r="F19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="2" t="s">
+      <c r="F29" t="s">
         <v>50</v>
       </c>
-      <c r="F20" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F22" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F24" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F25" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F26" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F27" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>6</v>
-      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="1"/>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="1"/>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1"/>
+      <c r="B33" s="4"/>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="1"/>
+      <c r="B34" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Master Dissertation/Data/DataTable.xlsx
+++ b/Master Dissertation/Data/DataTable.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="65">
   <si>
     <t>Experimentation 1</t>
   </si>
@@ -226,9 +226,6 @@
   </si>
   <si>
     <t xml:space="preserve"> HSI</t>
-  </si>
-  <si>
-    <t>A hybrid fuzzy time series model based on granular computing for stock price forecasting</t>
   </si>
 </sst>
 </file>
@@ -568,8 +565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -621,7 +618,7 @@
         <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:6">

--- a/Master Dissertation/Data/DataTable.xlsx
+++ b/Master Dissertation/Data/DataTable.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="66">
   <si>
     <t>Experimentation 1</t>
   </si>
@@ -226,6 +226,9 @@
   </si>
   <si>
     <t xml:space="preserve"> HSI</t>
+  </si>
+  <si>
+    <t>A hybrid ANFIS model based on empirical mode decomposition for</t>
   </si>
 </sst>
 </file>
@@ -566,7 +569,7 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -618,7 +621,7 @@
         <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:6">

--- a/Master Dissertation/Data/DataTable.xlsx
+++ b/Master Dissertation/Data/DataTable.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="32">
   <si>
     <t>Experimentation 1</t>
   </si>
@@ -71,21 +71,6 @@
     <t>S&amp;P500</t>
   </si>
   <si>
-    <t>APPLE</t>
-  </si>
-  <si>
-    <t>IBM</t>
-  </si>
-  <si>
-    <t>DELL</t>
-  </si>
-  <si>
-    <t>MS</t>
-  </si>
-  <si>
-    <t>A Bayesian regulatized artificial neural network for stock market forecasting</t>
-  </si>
-  <si>
     <t>10/01/2001~01/03/2002 (66)</t>
   </si>
   <si>
@@ -95,18 +80,9 @@
     <t>11/20/2000-01/04/2001 (31)</t>
   </si>
   <si>
-    <t>09/13/2004~01/21/2005 (92)</t>
-  </si>
-  <si>
-    <t>02/10/2003~09/10/2004 (400)</t>
-  </si>
-  <si>
     <t>Complex Neurofuzzy ARIMA Forecasting-A new Approach Using Complex Fuzzy Sets</t>
   </si>
   <si>
-    <t>12/24/2002-02/09/2003 (31)</t>
-  </si>
-  <si>
     <t>TAIEX</t>
   </si>
   <si>
@@ -137,95 +113,10 @@
     <t>11/19/1999-01/04/2000 (31)</t>
   </si>
   <si>
-    <t>Experimentation 4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Experimentation 5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Experimentation 6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A hybrid approach by integrating wavelet-based feature extraction with MARS and SVR for stock index forecasting</t>
-  </si>
-  <si>
-    <t>BVSP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DJI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NIKKEI 225</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SSEC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Fuzzy time-series model based on rough set rule induction for forecasting stock price</t>
   </si>
   <si>
-    <t>JKSE</t>
-  </si>
-  <si>
-    <t>01/01/1998-07/31/2000 (31)</t>
-  </si>
-  <si>
-    <t>08/01/2000~12/31/2009 (115)</t>
-  </si>
-  <si>
-    <t>01/01/2010~12/31/2015 (70)</t>
-  </si>
-  <si>
-    <t>Comparative study of volatility forecasting models: The case of Malaysia, hong kong and japan stock markets</t>
-  </si>
-  <si>
-    <t>01/23/2006-03/13/2006 (31)</t>
-  </si>
-  <si>
-    <t>03/14/2006~05/27/2009 (800)</t>
-  </si>
-  <si>
-    <t>05/28/2009~04/01/2010 (200)</t>
-  </si>
-  <si>
-    <t>02/27/2006-04/11/2006 (31)</t>
-  </si>
-  <si>
-    <t>04/12/2006~06/15/2009 (800)</t>
-  </si>
-  <si>
-    <t>06/16/2009~04/01/2010 (200)</t>
-  </si>
-  <si>
-    <t>01/20/2006-03/02/2006 (31)</t>
-  </si>
-  <si>
-    <t>03/03/2006~05/25/2009 (800)</t>
-  </si>
-  <si>
-    <t>05/26/2009~04/01/2010 (200)</t>
-  </si>
-  <si>
-    <t>01/06/2006-02/28/2006 (31)</t>
-  </si>
-  <si>
-    <t>03/01/2006~06/08/2009 (800)</t>
-  </si>
-  <si>
-    <t>06/09/2009~04/01/2010 (200)</t>
-  </si>
-  <si>
     <t xml:space="preserve">HSI </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> HSI</t>
   </si>
   <si>
     <t>A hybrid ANFIS model based on empirical mode decomposition for</t>
@@ -568,8 +459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:XFD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -587,7 +478,7 @@
         <v>7</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>8</v>
@@ -609,19 +500,19 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -646,19 +537,19 @@
         <v>3</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F8" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -666,19 +557,19 @@
         <v>4</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="F9" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -699,19 +590,19 @@
         <v>3</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F13" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -722,16 +613,16 @@
         <v>12</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D14" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F14" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -742,16 +633,16 @@
         <v>13</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D15" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F15" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -762,235 +653,68 @@
         <v>14</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D16" t="s">
         <v>11</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18" t="s">
-        <v>52</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D19" t="s">
-        <v>55</v>
-      </c>
-      <c r="E19" t="s">
-        <v>56</v>
-      </c>
-      <c r="F19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" t="s">
-        <v>58</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D21" t="s">
-        <v>61</v>
-      </c>
-      <c r="E21" t="s">
-        <v>62</v>
-      </c>
-      <c r="F21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>24</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F23" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F24" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D28" t="s">
-        <v>48</v>
-      </c>
-      <c r="E28" t="s">
-        <v>49</v>
-      </c>
-      <c r="F28" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D29" t="s">
-        <v>48</v>
-      </c>
-      <c r="E29" t="s">
-        <v>49</v>
-      </c>
-      <c r="F29" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1"/>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1"/>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="2"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1"/>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1"/>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1"/>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1"/>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="2"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1"/>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="1"/>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:5">
       <c r="A31" s="1"/>
       <c r="E31" s="3"/>
     </row>
